--- a/database_doc/adatbazisterv.xlsx
+++ b/database_doc/adatbazisterv.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD358A1-AFA0-4990-8FF6-6F39EA2D576C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E1BC8E-48F4-4877-B23A-252EFBAF20F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>user</t>
   </si>
@@ -34,46 +34,40 @@
     <t>…</t>
   </si>
   <si>
-    <t>termékek</t>
-  </si>
-  <si>
-    <t>neve</t>
-  </si>
-  <si>
-    <t>mérete</t>
-  </si>
-  <si>
-    <t>szine</t>
-  </si>
-  <si>
-    <t>egységára</t>
-  </si>
-  <si>
-    <t>dbszam</t>
-  </si>
-  <si>
-    <t>kategoriaId</t>
-  </si>
-  <si>
-    <t>kategoria</t>
-  </si>
-  <si>
-    <t>kosár</t>
-  </si>
-  <si>
     <t>userId</t>
   </si>
   <si>
-    <t>termekId</t>
-  </si>
-  <si>
-    <t>vasarlasId</t>
-  </si>
-  <si>
-    <t>mennyiseg</t>
-  </si>
-  <si>
-    <t>datum</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>categoryId</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>buyingId</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>baskets</t>
   </si>
 </sst>
 </file>
@@ -583,7 +577,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -625,22 +619,22 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -712,18 +706,18 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K11" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -731,19 +725,19 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K13" s="1">
         <v>1</v>
